--- a/console/Networking/iaas-network/pipMixinsXlsx/components/bindResource.xlsx
+++ b/console/Networking/iaas-network/pipMixinsXlsx/components/bindResource.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -420,18 +425,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>This IP only supports association with virtual machine or load balancer within the same availability zone. If you need to use multiple availability zone function, please directly switch to new BGP IP of JD Cloud</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Secondary network interface only supports association with EIP within full availability zone</t>
     </r>
   </si>
@@ -568,11 +561,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">‘Associated the elastic network interface resource </t>
+    <t>This IP only supports association with Virtual Machine or Load Balancer within the same availability zone. If you need to use multiple availability zones function, please directly switch to new BGP IP of JD Cloud</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>‘Associated the resources</t>
+    <t>‘The resources associated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘The Elastic Network Interface resource  associated.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,6 +590,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -616,14 +620,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -963,15 +970,15 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="41.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="41.6328125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,18 +989,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1001,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1023,10 +1030,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1034,10 +1041,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1045,10 +1052,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,10 +1063,10 @@
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,10 +1074,10 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1078,10 +1085,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1089,10 +1096,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1100,21 +1107,21 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1122,21 +1129,21 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1144,12 +1151,13 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B16" numberStoredAsText="1"/>
   </ignoredErrors>
